--- a/BigData/eBooks/Hadoop_Actions_List.xlsx
+++ b/BigData/eBooks/Hadoop_Actions_List.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VijayBI\HadoopTraining\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBI\SCM\GitHubCom\VBI\BigData\eBooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="4935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17976" windowHeight="4932" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NextStepsToDo" sheetId="1" r:id="rId1"/>
+    <sheet name="BetterToHaveIt" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>S.No</t>
   </si>
@@ -147,13 +148,140 @@
   </si>
   <si>
     <t>Understanding of Big and Little endian byte order.</t>
+  </si>
+  <si>
+    <t>Have a look on Google Published white papers on GFS and MapReduce.</t>
+  </si>
+  <si>
+    <t>About NUTCH Project
+An article on Nutch by Tom White</t>
+  </si>
+  <si>
+    <t>About Amazon's EC2 and S3 services.</t>
+  </si>
+  <si>
+    <t>What is devising an object serialization framework.</t>
+  </si>
+  <si>
+    <t>What is Data, Information, Knowledge and Wisdom</t>
+  </si>
+  <si>
+    <t>about electronic data volume units.</t>
+  </si>
+  <si>
+    <t>About "MyLifeBits" project from MicroSoft's Research.</t>
+  </si>
+  <si>
+    <t>Public Data Sets on Amazon Web Services and Infochimps.org</t>
+  </si>
+  <si>
+    <t>About Astrometry.net project</t>
+  </si>
+  <si>
+    <t>Have a look on Anand Rajaraman’s blog post “More data usually beats better algorithms,”</t>
+  </si>
+  <si>
+    <t>About RAID and how it works. And How HDFS works different than RAID.</t>
+  </si>
+  <si>
+    <t>Different types of Distributed Systems to combine data for analysis work.</t>
+  </si>
+  <si>
+    <t>An explaination to Built-in reliability feature in HDFS and MapReduce.</t>
+  </si>
+  <si>
+    <t>About Solr vs ElasticSearch: http://www.searchtechnologies.com/elasticsearch-solr-lucene</t>
+  </si>
+  <si>
+    <t>About Solr Search Platform.</t>
+  </si>
+  <si>
+    <t>Hard Disk Drive Seek time and Data transfer rate/data access rate.</t>
+  </si>
+  <si>
+    <t>Why RDBMS Systems take more time to updating majority of DB and takes less time to update small proportion of records in a DB. Is it due to B-Tree Data Structure? Then what is B-Tree Data Structure and how it works differently then MapReduce which uses Sort/Merge to rebuild the DB.</t>
+  </si>
+  <si>
+    <t>Read this article: http://scienceblogs.com/goodmath/2008/01/22/databases-are-hammers-mapreduc/ for differentiating why MapReduce suits applications where the data is written once and read many times, whereas a relational database is good for datasets that are continually updated.[</t>
+  </si>
+  <si>
+    <t>About Distribute Query Engine like Impala.</t>
+  </si>
+  <si>
+    <t>What is Indexes and transactions in traditional RDBMS and how these features help Hive to be a interactive in access.</t>
+  </si>
+  <si>
+    <t>Examples for Structured, Semi Structured and Unstructured Data.</t>
+  </si>
+  <si>
+    <t>What are the Joins in traditional RDBMS and how do we achieve Joins in Hadoop with examples.</t>
+  </si>
+  <si>
+    <t>Implementing Elasticsearch Platform on Hadoop Cluster i.e. indexing documents as they are added to HDFS, and serving search queries from indexes stored in HDFS. Try this with DevOps operation in FedDB.</t>
+  </si>
+  <si>
+    <t>About Shared Filesystem which is hosting in Storage Area Network (SAN).</t>
+  </si>
+  <si>
+    <t>We all know HPC is using MPI API's approach to process data i.e. Compute-Intensive jobs. 
+MPI gives great control to programmers, but it requires that they explicitly handle the
+mechanics of the data flow, exposed via low-level C routines and constructs such as
+www.allitebooks.com sockets, as well as the higher-level algorithms for the analyses. Processing in Hadoop operates only at the higher level: the programmer thinks in terms of the data model (such as key-value pairs for MapReduce), while the data flow remains implicit.</t>
+  </si>
+  <si>
+    <t>An example for, since the output from mappers is fed to the reducers, but this is
+under the control of the MapReduce system; in this case, it needs to take more care
+rerunning a failed reducer than rerunning a failed map, because it has to make sure it can
+retrieve the necessary map outputs and, if not, regenerate them by running the relevant
+maps again.</t>
+  </si>
+  <si>
+    <t>About Databricks</t>
+  </si>
+  <si>
+    <t>The Big analytics blog: https://thomaswdinsmore.com/about/</t>
+  </si>
+  <si>
+    <t>About tar, gzip and bzip2 file formats.</t>
+  </si>
+  <si>
+    <t>what is line offset in java</t>
+  </si>
+  <si>
+    <t>About local filesystem</t>
+  </si>
+  <si>
+    <t>Why Split size is same as block size.</t>
+  </si>
+  <si>
+    <t>About Max, Min, Average, Mean and Aggregate</t>
+  </si>
+  <si>
+    <t>About Commutative and Associative Functions. Also referred to as Distributive.
+http://research.microsoft.com/pubs/69578/tr-95-22.pdf</t>
+  </si>
+  <si>
+    <t>What are the Unix Standard streams and how it helps in Hadoop Streaming while writing MapReduce in different language than Java.</t>
+  </si>
+  <si>
+    <t>Use of sockets to communicate with processes.</t>
+  </si>
+  <si>
+    <t>"The MapReduce framework ensures that the keys are ordered, so we know that if a key is different from the previous one, we have moved into a new key group. In contrast to the Java API, where you are provided an iterator over each key group, in Streaming you have to find key group boundaries in your program."
+With above sentance try to get Pros and cons of using Python over Java with an example to define performance of data processing.</t>
+  </si>
+  <si>
+    <t>About Dumbo: http://klbostee.github.io/dumbo/</t>
+  </si>
+  <si>
+    <t>Using Grok patterns in Hadoop Streaming.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +293,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -190,13 +325,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,20 +618,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="82.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="82.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -507,7 +645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -515,7 +653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -523,7 +661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -531,7 +669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -539,7 +677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -547,7 +685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -555,7 +693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -563,7 +701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -571,7 +709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -579,7 +717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -587,7 +725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -595,7 +733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -603,7 +741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -611,7 +749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -619,7 +757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -627,7 +765,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -635,7 +773,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -643,7 +781,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -651,7 +789,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -659,7 +797,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -667,7 +805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -675,7 +813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -683,7 +821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -691,7 +829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -699,7 +837,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -707,7 +845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -715,7 +853,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -723,7 +861,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -731,7 +869,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -739,7 +877,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -747,7 +885,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -755,7 +893,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -763,7 +901,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -771,7 +909,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -779,7 +917,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -787,12 +925,345 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="73.44140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
